--- a/biology/Histoire de la zoologie et de la botanique/Ignaz_Friedrich_Tausch/Ignaz_Friedrich_Tausch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ignaz_Friedrich_Tausch/Ignaz_Friedrich_Tausch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ignaz Friedrich Tausch, né à Theusing en 1793[1] et mort le 8 septembre 1848, est un botaniste autrichien originaire de Bohême.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ignaz Friedrich Tausch, né à Theusing en 1793 et mort le 8 septembre 1848, est un botaniste autrichien originaire de Bohême.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tausch naît à Theusing en Bohême. Il fait ses études de philosophie, de médecine et de biologie à l'université de Prague. Il enseigne la botanique à partir de 1816 à Prague et dirige le jardin botanique du comte Malabaila von Canal.
 Il se spécialise dans les filicophytes et les spermatophytes. Schlechtendal lui dédie le genre Tauschia en 1835.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Bemerkungen über einige Arten der Gattung Paeonia, in Flora, Ratisbonne, 11, (6), 81—89.
 (la) Hortus canalius, 1823—1825. 2 decades, Prague: T. Haase.
